--- a/REGULAR/ONT/JUMARANG, AIMEE.xlsx
+++ b/REGULAR/ONT/JUMARANG, AIMEE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9623C-9258-46DE-9D9E-C70BE8FBD394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="247">
   <si>
     <t>PERIOD</t>
   </si>
@@ -772,12 +773,15 @@
   </si>
   <si>
     <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1640,7 +1644,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1687,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1751,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1811,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1877,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1940,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2038,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2097,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2162,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2205,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2280,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2466,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2532,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2590,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2656,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2712,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2787,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,7 +2830,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2896,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2952,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3050,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3113,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3158,7 +3162,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3175,25 +3179,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3205,14 +3209,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="7"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE STARTED" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="LEAVE EARN" dataDxfId="6">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LEAVE EARNED" dataDxfId="5">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3221,13 +3225,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="0">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3531,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3541,7 +3545,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3549,34 +3553,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A357" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1800" topLeftCell="A360" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="G367" sqref="G367"/>
+      <selection pane="bottomLeft" activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3597,7 +3601,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3615,7 +3619,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3633,7 +3637,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3641,7 +3645,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3654,7 +3658,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3671,7 +3675,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3715,7 +3719,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>139.7239999999999</v>
+        <v>148.4739999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3725,12 +3729,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>175.792</v>
+        <v>183.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -3772,7 +3776,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35827</v>
       </c>
@@ -3792,7 +3796,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35855</v>
       </c>
@@ -3812,7 +3816,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35886</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35916</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35947</v>
       </c>
@@ -3872,7 +3876,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35977</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36008</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36039</v>
       </c>
@@ -3936,7 +3940,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36069</v>
       </c>
@@ -3960,7 +3964,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36100</v>
       </c>
@@ -3980,7 +3984,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36130</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>44</v>
       </c>
@@ -4022,7 +4026,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36161</v>
       </c>
@@ -4042,7 +4046,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36192</v>
       </c>
@@ -4062,7 +4066,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36220</v>
       </c>
@@ -4082,7 +4086,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36251</v>
       </c>
@@ -4106,7 +4110,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36281</v>
       </c>
@@ -4130,7 +4134,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36312</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36342</v>
       </c>
@@ -4178,7 +4182,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36373</v>
       </c>
@@ -4202,7 +4206,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36404</v>
       </c>
@@ -4226,7 +4230,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36434</v>
       </c>
@@ -4250,7 +4254,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36465</v>
       </c>
@@ -4274,7 +4278,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36495</v>
       </c>
@@ -4298,7 +4302,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4320,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36526</v>
       </c>
@@ -4336,7 +4340,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36557</v>
       </c>
@@ -4356,7 +4360,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36586</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36617</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36647</v>
       </c>
@@ -4416,7 +4420,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36678</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36708</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36739</v>
       </c>
@@ -4482,7 +4486,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36770</v>
       </c>
@@ -4502,7 +4506,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36800</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36831</v>
       </c>
@@ -4546,7 +4550,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -4570,7 +4574,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>46</v>
       </c>
@@ -4588,7 +4592,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>36892</v>
       </c>
@@ -4608,7 +4612,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>36923</v>
       </c>
@@ -4628,7 +4632,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>36951</v>
       </c>
@@ -4648,7 +4652,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>36982</v>
       </c>
@@ -4672,7 +4676,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>37012</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>37043</v>
       </c>
@@ -4718,7 +4722,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>37073</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>61</v>
@@ -4764,7 +4768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>37104</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>62</v>
@@ -4808,7 +4812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>61</v>
@@ -4828,7 +4832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>37135</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>37165</v>
       </c>
@@ -4876,7 +4880,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>37196</v>
       </c>
@@ -4896,7 +4900,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>37226</v>
       </c>
@@ -4920,7 +4924,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>47</v>
       </c>
@@ -4938,7 +4942,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>37257</v>
       </c>
@@ -4962,7 +4966,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>37288</v>
       </c>
@@ -4986,7 +4990,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>37316</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>75</v>
@@ -5032,7 +5036,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>37347</v>
       </c>
@@ -5052,7 +5056,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>37377</v>
       </c>
@@ -5076,7 +5080,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>37408</v>
       </c>
@@ -5096,7 +5100,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>37438</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>37469</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>37500</v>
       </c>
@@ -5156,7 +5160,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>37530</v>
       </c>
@@ -5180,7 +5184,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>37561</v>
       </c>
@@ -5200,7 +5204,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>37591</v>
       </c>
@@ -5220,7 +5224,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>53</v>
       </c>
@@ -5238,7 +5242,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>37622</v>
       </c>
@@ -5258,7 +5262,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>37653</v>
       </c>
@@ -5278,7 +5282,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>37681</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
         <v>37712</v>
       </c>
@@ -5318,7 +5322,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>37742</v>
       </c>
@@ -5338,7 +5342,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>37773</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>37803</v>
       </c>
@@ -5386,7 +5390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>77</v>
@@ -5406,7 +5410,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>37834</v>
       </c>
@@ -5426,7 +5430,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>37865</v>
       </c>
@@ -5446,7 +5450,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>37895</v>
       </c>
@@ -5466,7 +5470,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>37926</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>80</v>
@@ -5512,7 +5516,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>37956</v>
       </c>
@@ -5536,7 +5540,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>54</v>
       </c>
@@ -5554,7 +5558,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>37987</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>61</v>
@@ -5602,7 +5606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>38018</v>
       </c>
@@ -5622,7 +5626,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>38047</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>38078</v>
       </c>
@@ -5668,7 +5672,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>38108</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>38139</v>
       </c>
@@ -5714,7 +5718,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>38169</v>
       </c>
@@ -5742,7 +5746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>38200</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>38231</v>
       </c>
@@ -5786,7 +5790,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>38261</v>
       </c>
@@ -5806,7 +5810,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>38292</v>
       </c>
@@ -5826,7 +5830,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>38322</v>
       </c>
@@ -5846,7 +5850,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>55</v>
       </c>
@@ -5864,7 +5868,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>38353</v>
       </c>
@@ -5888,7 +5892,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>38384</v>
       </c>
@@ -5912,7 +5916,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>38412</v>
       </c>
@@ -5936,7 +5940,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>38443</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>100</v>
@@ -5980,7 +5984,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>38473</v>
       </c>
@@ -6000,7 +6004,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>38504</v>
       </c>
@@ -6020,7 +6024,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>38534</v>
       </c>
@@ -6044,7 +6048,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>38565</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>104</v>
@@ -6092,7 +6096,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>105</v>
@@ -6112,7 +6116,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>38596</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>38626</v>
       </c>
@@ -6158,7 +6162,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>38657</v>
       </c>
@@ -6178,7 +6182,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>38687</v>
       </c>
@@ -6198,7 +6202,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="47" t="s">
         <v>56</v>
       </c>
@@ -6216,7 +6220,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>38718</v>
       </c>
@@ -6240,7 +6244,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>38749</v>
       </c>
@@ -6264,7 +6268,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>38777</v>
       </c>
@@ -6288,7 +6292,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>38808</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>38838</v>
       </c>
@@ -6332,7 +6336,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>38869</v>
       </c>
@@ -6356,7 +6360,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>38899</v>
       </c>
@@ -6380,7 +6384,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>38930</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>38961</v>
       </c>
@@ -6424,7 +6428,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>38991</v>
       </c>
@@ -6448,7 +6452,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>39022</v>
       </c>
@@ -6472,7 +6476,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>39052</v>
       </c>
@@ -6496,7 +6500,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>118</v>
@@ -6516,7 +6520,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>57</v>
       </c>
@@ -6534,7 +6538,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>39083</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>39114</v>
       </c>
@@ -6580,7 +6584,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>39142</v>
       </c>
@@ -6604,7 +6608,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>39173</v>
       </c>
@@ -6624,7 +6628,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>39203</v>
       </c>
@@ -6646,7 +6650,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>39234</v>
       </c>
@@ -6666,7 +6670,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>39264</v>
       </c>
@@ -6686,7 +6690,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>39295</v>
       </c>
@@ -6706,7 +6710,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>39326</v>
       </c>
@@ -6726,7 +6730,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>39356</v>
       </c>
@@ -6750,7 +6754,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>39387</v>
       </c>
@@ -6774,7 +6778,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>39417</v>
       </c>
@@ -6798,7 +6802,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>48</v>
@@ -6818,7 +6822,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
         <v>58</v>
       </c>
@@ -6836,7 +6840,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>39448</v>
       </c>
@@ -6860,7 +6864,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>39479</v>
       </c>
@@ -6884,7 +6888,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>39508</v>
       </c>
@@ -6908,7 +6912,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>39539</v>
       </c>
@@ -6932,7 +6936,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>39569</v>
       </c>
@@ -6956,7 +6960,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>39600</v>
       </c>
@@ -6980,7 +6984,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>39630</v>
       </c>
@@ -7004,7 +7008,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>39661</v>
       </c>
@@ -7028,7 +7032,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>39692</v>
       </c>
@@ -7052,7 +7056,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>39722</v>
       </c>
@@ -7072,7 +7076,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>39753</v>
       </c>
@@ -7092,7 +7096,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>39783</v>
       </c>
@@ -7116,7 +7120,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="47" t="s">
         <v>137</v>
       </c>
@@ -7134,7 +7138,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>39814</v>
       </c>
@@ -7158,7 +7162,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>39845</v>
       </c>
@@ -7182,7 +7186,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <v>39873</v>
       </c>
@@ -7206,7 +7210,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>39904</v>
       </c>
@@ -7226,7 +7230,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>39934</v>
       </c>
@@ -7250,7 +7254,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>39965</v>
       </c>
@@ -7274,7 +7278,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>39995</v>
       </c>
@@ -7298,7 +7302,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>40026</v>
       </c>
@@ -7322,7 +7326,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>40057</v>
       </c>
@@ -7346,7 +7350,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>40087</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>40118</v>
       </c>
@@ -7392,7 +7396,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>40148</v>
       </c>
@@ -7416,7 +7420,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>136</v>
       </c>
@@ -7434,7 +7438,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>40179</v>
       </c>
@@ -7458,7 +7462,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>40210</v>
       </c>
@@ -7482,7 +7486,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <v>40238</v>
       </c>
@@ -7506,7 +7510,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>40269</v>
       </c>
@@ -7530,7 +7534,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>40299</v>
       </c>
@@ -7554,7 +7558,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <v>40330</v>
       </c>
@@ -7578,7 +7582,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>40360</v>
       </c>
@@ -7602,7 +7606,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>40391</v>
       </c>
@@ -7626,7 +7630,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>40422</v>
       </c>
@@ -7650,7 +7654,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>40452</v>
       </c>
@@ -7674,7 +7678,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>40483</v>
       </c>
@@ -7698,7 +7702,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>40513</v>
       </c>
@@ -7722,7 +7726,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="47" t="s">
         <v>135</v>
       </c>
@@ -7740,7 +7744,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>40544</v>
       </c>
@@ -7764,7 +7768,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>40575</v>
       </c>
@@ -7788,7 +7792,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <v>40603</v>
       </c>
@@ -7812,7 +7816,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>40634</v>
       </c>
@@ -7836,7 +7840,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>40664</v>
       </c>
@@ -7860,7 +7864,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>40695</v>
       </c>
@@ -7880,7 +7884,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>40725</v>
       </c>
@@ -7900,7 +7904,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>40756</v>
       </c>
@@ -7920,7 +7924,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>40787</v>
       </c>
@@ -7940,7 +7944,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>40817</v>
       </c>
@@ -7960,7 +7964,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <v>40848</v>
       </c>
@@ -7984,7 +7988,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>40878</v>
       </c>
@@ -8008,7 +8012,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>173</v>
@@ -8028,7 +8032,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>134</v>
       </c>
@@ -8046,7 +8050,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>40909</v>
       </c>
@@ -8066,7 +8070,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>40940</v>
       </c>
@@ -8086,7 +8090,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>40969</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>99</v>
@@ -8132,7 +8136,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>41000</v>
       </c>
@@ -8152,7 +8156,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>41030</v>
       </c>
@@ -8178,7 +8182,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>41061</v>
       </c>
@@ -8198,7 +8202,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>41091</v>
       </c>
@@ -8218,7 +8222,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <v>41122</v>
       </c>
@@ -8244,7 +8248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <v>41153</v>
       </c>
@@ -8264,7 +8268,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>41183</v>
       </c>
@@ -8284,7 +8288,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>41214</v>
       </c>
@@ -8304,7 +8308,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>41244</v>
       </c>
@@ -8328,7 +8332,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>132</v>
       </c>
@@ -8346,7 +8350,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>41275</v>
       </c>
@@ -8366,7 +8370,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <v>41306</v>
       </c>
@@ -8386,7 +8390,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>41334</v>
       </c>
@@ -8410,7 +8414,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>41365</v>
       </c>
@@ -8430,7 +8434,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>41395</v>
       </c>
@@ -8450,7 +8454,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>41426</v>
       </c>
@@ -8474,7 +8478,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>41456</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>182</v>
@@ -8518,7 +8522,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>41487</v>
       </c>
@@ -8542,7 +8546,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>41518</v>
       </c>
@@ -8562,7 +8566,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>41548</v>
       </c>
@@ -8586,7 +8590,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>41579</v>
       </c>
@@ -8606,7 +8610,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <v>41609</v>
       </c>
@@ -8630,7 +8634,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
         <v>124</v>
       </c>
@@ -8648,7 +8652,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>41640</v>
       </c>
@@ -8668,7 +8672,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>41671</v>
       </c>
@@ -8692,7 +8696,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>41699</v>
       </c>
@@ -8712,7 +8716,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>41730</v>
       </c>
@@ -8732,7 +8736,7 @@
       <c r="J237" s="12"/>
       <c r="K237" s="15"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>41760</v>
       </c>
@@ -8752,7 +8756,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>41791</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>41821</v>
       </c>
@@ -8802,7 +8806,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>41852</v>
       </c>
@@ -8826,7 +8830,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>41883</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>181</v>
@@ -8872,7 +8876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>41913</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>41927</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>188</v>
@@ -8918,7 +8922,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>41944</v>
       </c>
@@ -8938,7 +8942,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>41974</v>
       </c>
@@ -8962,7 +8966,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>189</v>
@@ -8982,7 +8986,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="47" t="s">
         <v>133</v>
       </c>
@@ -9000,7 +9004,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>42005</v>
       </c>
@@ -9024,7 +9028,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>42036</v>
       </c>
@@ -9048,7 +9052,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>42064</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>99</v>
@@ -9094,7 +9098,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>198</v>
@@ -9114,7 +9118,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>42095</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>196</v>
@@ -9162,7 +9166,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>199</v>
@@ -9182,7 +9186,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>42125</v>
       </c>
@@ -9206,7 +9210,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>200</v>
@@ -9226,7 +9230,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>42156</v>
       </c>
@@ -9250,7 +9254,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>42186</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>42217</v>
       </c>
@@ -9296,7 +9300,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>42248</v>
       </c>
@@ -9316,7 +9320,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>42278</v>
       </c>
@@ -9340,7 +9344,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>42309</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>77</v>
@@ -9388,7 +9392,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>42339</v>
       </c>
@@ -9408,7 +9412,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="47" t="s">
         <v>125</v>
       </c>
@@ -9426,7 +9430,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42370</v>
       </c>
@@ -9446,7 +9450,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42401</v>
       </c>
@@ -9466,7 +9470,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>42430</v>
       </c>
@@ -9486,7 +9490,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>42461</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>196</v>
@@ -9532,7 +9536,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>61</v>
@@ -9554,7 +9558,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>42491</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>42522</v>
       </c>
@@ -9600,7 +9604,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42552</v>
       </c>
@@ -9620,7 +9624,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42583</v>
       </c>
@@ -9640,7 +9644,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42614</v>
       </c>
@@ -9660,7 +9664,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42644</v>
       </c>
@@ -9680,7 +9684,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>42675</v>
       </c>
@@ -9700,7 +9704,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>42705</v>
       </c>
@@ -9726,7 +9730,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>48</v>
@@ -9746,7 +9750,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="47" t="s">
         <v>131</v>
       </c>
@@ -9764,7 +9768,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>42736</v>
       </c>
@@ -9790,7 +9794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>42767</v>
       </c>
@@ -9816,7 +9820,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>42795</v>
       </c>
@@ -9840,7 +9844,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>42826</v>
       </c>
@@ -9860,7 +9864,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>42856</v>
       </c>
@@ -9884,7 +9888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>42887</v>
       </c>
@@ -9904,7 +9908,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>42917</v>
       </c>
@@ -9924,7 +9928,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42948</v>
       </c>
@@ -9944,7 +9948,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>42979</v>
       </c>
@@ -9964,7 +9968,7 @@
       <c r="J293" s="12"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43009</v>
       </c>
@@ -9990,7 +9994,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>212</v>
@@ -10012,7 +10016,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>77</v>
@@ -10034,7 +10038,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43040</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43070</v>
       </c>
@@ -10084,7 +10088,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="47" t="s">
         <v>130</v>
       </c>
@@ -10102,7 +10106,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>43101</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>43132</v>
       </c>
@@ -10152,7 +10156,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43160</v>
       </c>
@@ -10172,7 +10176,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>43191</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>99</v>
@@ -10216,7 +10220,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>62</v>
@@ -10238,7 +10242,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>43221</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>43252</v>
       </c>
@@ -10284,7 +10288,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>43282</v>
       </c>
@@ -10304,7 +10308,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>43313</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43344</v>
       </c>
@@ -10350,7 +10354,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>43374</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43405</v>
       </c>
@@ -10402,7 +10406,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>43435</v>
       </c>
@@ -10422,7 +10426,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="47" t="s">
         <v>129</v>
       </c>
@@ -10440,7 +10444,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>43466</v>
       </c>
@@ -10460,7 +10464,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>43497</v>
       </c>
@@ -10484,7 +10488,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>77</v>
@@ -10506,7 +10510,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43525</v>
       </c>
@@ -10526,7 +10530,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>43556</v>
       </c>
@@ -10546,7 +10550,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43586</v>
       </c>
@@ -10572,7 +10576,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>196</v>
@@ -10594,7 +10598,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43617</v>
       </c>
@@ -10614,7 +10618,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>43647</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43678</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>43709</v>
       </c>
@@ -10686,7 +10690,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43739</v>
       </c>
@@ -10706,7 +10710,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43770</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>79</v>
@@ -10754,7 +10758,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43800</v>
       </c>
@@ -10774,7 +10778,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="47" t="s">
         <v>128</v>
       </c>
@@ -10792,7 +10796,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43831</v>
       </c>
@@ -10816,7 +10820,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>99</v>
@@ -10836,7 +10840,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43862</v>
       </c>
@@ -10856,7 +10860,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>43891</v>
       </c>
@@ -10876,7 +10880,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>43922</v>
       </c>
@@ -10896,7 +10900,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>43952</v>
       </c>
@@ -10916,7 +10920,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43983</v>
       </c>
@@ -10936,7 +10940,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>44013</v>
       </c>
@@ -10956,7 +10960,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>44044</v>
       </c>
@@ -10976,7 +10980,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44075</v>
       </c>
@@ -10996,7 +11000,7 @@
       <c r="J340" s="12"/>
       <c r="K340" s="15"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>44105</v>
       </c>
@@ -11016,7 +11020,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>44136</v>
       </c>
@@ -11036,7 +11040,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>44166</v>
       </c>
@@ -11060,7 +11064,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="47" t="s">
         <v>127</v>
       </c>
@@ -11078,7 +11082,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44197</v>
       </c>
@@ -11098,7 +11102,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>44228</v>
       </c>
@@ -11118,7 +11122,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44256</v>
       </c>
@@ -11138,7 +11142,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>44287</v>
       </c>
@@ -11158,7 +11162,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44317</v>
       </c>
@@ -11178,7 +11182,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>44348</v>
       </c>
@@ -11198,7 +11202,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>44378</v>
       </c>
@@ -11218,7 +11222,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>44409</v>
       </c>
@@ -11238,7 +11242,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>44440</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>48</v>
@@ -11284,7 +11288,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44470</v>
       </c>
@@ -11304,7 +11308,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>44501</v>
       </c>
@@ -11324,7 +11328,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44531</v>
       </c>
@@ -11344,7 +11348,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="47" t="s">
         <v>126</v>
       </c>
@@ -11362,7 +11366,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44562</v>
       </c>
@@ -11382,7 +11386,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44593</v>
       </c>
@@ -11408,7 +11412,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44621</v>
       </c>
@@ -11428,7 +11432,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44652</v>
       </c>
@@ -11448,7 +11452,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44682</v>
       </c>
@@ -11468,7 +11472,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44713</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44743</v>
       </c>
@@ -11514,7 +11518,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44774</v>
       </c>
@@ -11534,7 +11538,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44805</v>
       </c>
@@ -11558,7 +11562,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44835</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44866</v>
       </c>
@@ -11604,7 +11608,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44896</v>
       </c>
@@ -11624,7 +11628,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="47" t="s">
         <v>242</v>
       </c>
@@ -11642,7 +11646,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44927</v>
       </c>
@@ -11662,7 +11666,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44958</v>
       </c>
@@ -11688,137 +11692,153 @@
         <v>244</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44986</v>
       </c>
       <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
+      <c r="C374" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D374" s="39"/>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G374" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>45017</v>
       </c>
       <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D375" s="39"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>45047</v>
       </c>
       <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D376" s="39"/>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>45078</v>
       </c>
       <c r="B377" s="20"/>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>45108</v>
       </c>
       <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D378" s="39"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>45139</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>45170</v>
       </c>
       <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>45200</v>
       </c>
-      <c r="B381" s="20"/>
+      <c r="B381" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="C381" s="13"/>
       <c r="D381" s="39"/>
       <c r="E381" s="9"/>
@@ -11827,12 +11847,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H381" s="39"/>
+      <c r="H381" s="39">
+        <v>1</v>
+      </c>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K381" s="49">
+        <v>45202</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>45231</v>
       </c>
@@ -11850,7 +11874,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>45261</v>
       </c>
@@ -11868,7 +11892,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>45292</v>
       </c>
@@ -11886,7 +11910,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>45323</v>
       </c>
@@ -11904,7 +11928,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>45352</v>
       </c>
@@ -11922,7 +11946,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>45383</v>
       </c>
@@ -11940,7 +11964,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>45413</v>
       </c>
@@ -11958,7 +11982,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>45444</v>
       </c>
@@ -11976,7 +12000,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>45474</v>
       </c>
@@ -11994,7 +12018,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>45505</v>
       </c>
@@ -12012,7 +12036,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>45536</v>
       </c>
@@ -12030,7 +12054,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>45566</v>
       </c>
@@ -12048,7 +12072,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>45597</v>
       </c>
@@ -12066,7 +12090,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>45627</v>
       </c>
@@ -12084,7 +12108,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>45658</v>
       </c>
@@ -12102,7 +12126,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>45689</v>
       </c>
@@ -12120,7 +12144,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>45717</v>
       </c>
@@ -12138,7 +12162,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>45748</v>
       </c>
@@ -12156,7 +12180,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>45778</v>
       </c>
@@ -12174,7 +12198,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>45809</v>
       </c>
@@ -12192,7 +12216,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>45839</v>
       </c>
@@ -12210,7 +12234,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>45870</v>
       </c>
@@ -12228,7 +12252,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>45901</v>
       </c>
@@ -12246,7 +12270,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>45931</v>
       </c>
@@ -12264,7 +12288,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>45962</v>
       </c>
@@ -12282,7 +12306,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>45992</v>
       </c>
@@ -12300,7 +12324,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>46023</v>
       </c>
@@ -12318,7 +12342,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>46054</v>
       </c>
@@ -12336,7 +12360,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>46082</v>
       </c>
@@ -12354,7 +12378,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>46113</v>
       </c>
@@ -12372,7 +12396,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -12388,7 +12412,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -12404,7 +12428,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -12420,7 +12444,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -12436,7 +12460,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12452,7 +12476,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12468,7 +12492,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -12484,7 +12508,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -12500,7 +12524,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -12516,7 +12540,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12532,7 +12556,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12548,7 +12572,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -12564,7 +12588,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -12580,7 +12604,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -12596,7 +12620,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12612,7 +12636,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12628,7 +12652,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12644,7 +12668,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12660,7 +12684,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12676,7 +12700,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12692,7 +12716,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12708,7 +12732,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12724,7 +12748,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12740,7 +12764,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12756,7 +12780,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12772,7 +12796,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12788,7 +12812,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12804,7 +12828,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -12820,7 +12844,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -12836,7 +12860,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -12852,7 +12876,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -12868,7 +12892,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -12884,7 +12908,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12900,7 +12924,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12916,7 +12940,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12932,7 +12956,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12948,7 +12972,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12964,7 +12988,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12980,7 +13004,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12996,7 +13020,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13012,7 +13036,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13028,7 +13052,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13044,7 +13068,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13060,7 +13084,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -13076,7 +13100,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -13092,7 +13116,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -13108,7 +13132,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -13124,7 +13148,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -13140,7 +13164,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -13156,7 +13180,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -13172,7 +13196,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -13188,7 +13212,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -13204,7 +13228,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -13220,7 +13244,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -13236,7 +13260,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -13252,7 +13276,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -13268,7 +13292,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -13284,7 +13308,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -13300,7 +13324,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -13316,7 +13340,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -13332,7 +13356,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -13348,7 +13372,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -13364,7 +13388,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -13380,7 +13404,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -13396,7 +13420,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -13412,7 +13436,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -13428,7 +13452,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -13444,7 +13468,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -13460,7 +13484,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -13476,7 +13500,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -13492,7 +13516,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -13508,7 +13532,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -13524,7 +13548,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -13540,7 +13564,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -13556,7 +13580,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -13572,7 +13596,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -13588,7 +13612,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13604,7 +13628,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -13620,7 +13644,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -13636,7 +13660,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13652,7 +13676,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13668,7 +13692,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13684,7 +13708,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13700,7 +13724,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13716,7 +13740,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13732,7 +13756,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13748,7 +13772,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="50"/>
       <c r="B498" s="15"/>
       <c r="C498" s="41"/>
@@ -13779,10 +13803,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13805,29 +13829,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -13840,7 +13864,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13869,7 +13893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13895,17 +13919,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13926,7 +13953,11 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>332.01599999999991</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13953,7 +13984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13979,7 +14010,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14005,7 +14036,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14031,7 +14062,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14057,7 +14088,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14083,7 +14114,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14109,7 +14140,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14135,7 +14166,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14155,7 +14186,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14175,7 +14206,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14195,7 +14226,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14216,7 +14247,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14237,7 +14268,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14258,7 +14289,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14279,7 +14310,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14300,7 +14331,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14321,7 +14352,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14342,7 +14373,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14363,7 +14394,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14384,7 +14415,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14405,7 +14436,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14426,7 +14457,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14447,7 +14478,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14468,7 +14499,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14489,7 +14520,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14510,7 +14541,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14531,7 +14562,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14552,7 +14583,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14573,7 +14604,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14594,7 +14625,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14615,7 +14646,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14624,7 +14655,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14633,7 +14664,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14642,7 +14673,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14651,7 +14682,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14660,7 +14691,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14669,7 +14700,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14678,7 +14709,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14687,7 +14718,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14696,7 +14727,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14705,7 +14736,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14714,7 +14745,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14723,7 +14754,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14732,7 +14763,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14741,7 +14772,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14750,7 +14781,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14759,7 +14790,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14768,7 +14799,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14777,7 +14808,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14786,7 +14817,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14795,7 +14826,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14804,7 +14835,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14813,7 +14844,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14822,7 +14853,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14831,7 +14862,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14840,7 +14871,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14849,7 +14880,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14858,7 +14889,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14867,7 +14898,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14876,7 +14907,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
